--- a/workingTable/shifts_table.xlsx
+++ b/workingTable/shifts_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\workingTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E531A-68B4-43E9-933D-77AA6F684F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFCF53-214D-406C-8B91-4B4BA9C7E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -1050,43 +1050,22 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,22 +1113,43 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1459,8 +1459,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A24" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,92 +1486,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1630,13 +1630,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -1679,11 +1679,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -1724,11 +1724,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -1769,11 +1769,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -1893,11 +1893,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -1936,11 +1936,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -1979,11 +1979,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -2022,11 +2022,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -2083,7 +2083,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2137,11 +2137,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -2180,11 +2180,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -2223,11 +2223,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -2266,11 +2266,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2381,11 +2381,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -2424,11 +2424,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -2467,11 +2467,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -2510,11 +2510,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -2627,13 +2627,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -2676,11 +2676,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -2721,11 +2721,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -2766,11 +2766,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -2827,7 +2827,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -2890,11 +2890,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -2933,11 +2933,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -2976,11 +2976,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -3019,11 +3019,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -3080,7 +3080,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -3134,11 +3134,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -3177,11 +3177,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -3220,11 +3220,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -3263,11 +3263,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -3324,7 +3324,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3378,11 +3378,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -3421,11 +3421,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -3464,11 +3464,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -3507,11 +3507,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -3624,13 +3624,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -3673,11 +3673,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -3718,11 +3718,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -3763,11 +3763,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -3824,7 +3824,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -3886,11 +3886,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -3929,11 +3929,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -3972,11 +3972,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -4015,11 +4015,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -4076,7 +4076,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -4130,11 +4130,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -4173,11 +4173,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -4216,11 +4216,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -4259,11 +4259,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -4320,7 +4320,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -4374,11 +4374,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -4417,11 +4417,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -4460,11 +4460,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -4503,11 +4503,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -4565,16 +4565,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -4585,16 +4585,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4608,7 +4608,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4630,92 +4630,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4774,13 +4774,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -4823,11 +4823,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -4868,11 +4868,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -4913,11 +4913,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -4974,7 +4974,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -5037,11 +5037,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -5080,11 +5080,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -5123,11 +5123,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -5166,11 +5166,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -5281,11 +5281,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -5324,11 +5324,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -5367,11 +5367,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -5410,11 +5410,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -5471,7 +5471,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -5525,11 +5525,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -5568,11 +5568,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -5611,11 +5611,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -5654,11 +5654,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -5771,13 +5771,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -5820,11 +5820,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -5865,11 +5865,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58">
         <v>0</v>
       </c>
@@ -5924,11 +5924,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -5985,7 +5985,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -6048,11 +6048,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -6091,11 +6091,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -6134,11 +6134,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -6177,11 +6177,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -6238,7 +6238,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -6292,11 +6292,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -6335,11 +6335,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -6378,11 +6378,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -6421,11 +6421,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -6482,7 +6482,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -6536,11 +6536,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -6579,11 +6579,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -6622,11 +6622,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -6665,11 +6665,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -6782,13 +6782,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -6831,11 +6831,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -6876,11 +6876,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -6921,11 +6921,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -6982,7 +6982,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -7044,11 +7044,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -7087,11 +7087,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -7130,11 +7130,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -7173,11 +7173,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -7234,7 +7234,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -7288,11 +7288,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -7331,11 +7331,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -7374,11 +7374,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -7417,11 +7417,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -7478,7 +7478,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -7532,11 +7532,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -7575,11 +7575,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -7618,11 +7618,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -7661,11 +7661,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -7723,16 +7723,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -7743,16 +7743,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7765,8 +7765,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7788,92 +7788,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -7932,13 +7932,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -7981,11 +7981,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -8026,11 +8026,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -8071,11 +8071,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -8132,7 +8132,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -8195,11 +8195,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -8238,11 +8238,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -8281,11 +8281,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -8324,11 +8324,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -8385,7 +8385,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -8439,11 +8439,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -8482,11 +8482,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -8525,11 +8525,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -8568,11 +8568,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -8629,7 +8629,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8683,11 +8683,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -8726,11 +8726,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -8769,11 +8769,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -8812,11 +8812,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8929,13 +8929,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -8978,11 +8978,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -9023,11 +9023,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -9068,11 +9068,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -9129,7 +9129,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -9192,11 +9192,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -9235,11 +9235,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -9278,11 +9278,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -9321,11 +9321,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -9382,7 +9382,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -9436,11 +9436,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -9479,11 +9479,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -9522,11 +9522,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -9565,11 +9565,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -9626,7 +9626,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -9680,11 +9680,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -9723,11 +9723,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -9766,11 +9766,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -9809,11 +9809,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -9926,13 +9926,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -9975,11 +9975,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -10020,11 +10020,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -10065,11 +10065,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -10126,7 +10126,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -10188,11 +10188,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -10231,11 +10231,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -10274,11 +10274,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -10317,11 +10317,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -10378,7 +10378,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -10432,11 +10432,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -10475,11 +10475,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -10518,11 +10518,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -10561,11 +10561,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -10622,7 +10622,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -10676,11 +10676,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -10719,11 +10719,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -10762,11 +10762,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -10805,11 +10805,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -10867,16 +10867,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -10887,16 +10887,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10909,8 +10909,8 @@
   </sheetPr>
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10935,126 +10935,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="85"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -11113,13 +11113,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -11162,11 +11162,11 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -11207,11 +11207,11 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -11252,11 +11252,11 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -11313,7 +11313,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -11376,11 +11376,11 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -11419,11 +11419,11 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -11462,11 +11462,11 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -11505,11 +11505,11 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -11566,7 +11566,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -11620,11 +11620,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -11663,11 +11663,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -11706,11 +11706,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -11749,11 +11749,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -11810,7 +11810,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11864,11 +11864,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -11907,11 +11907,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -11950,11 +11950,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -11993,11 +11993,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -12110,13 +12110,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -12159,11 +12159,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58">
         <v>7.5</v>
       </c>
@@ -12218,11 +12218,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -12263,11 +12263,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>7.5</v>
@@ -12324,7 +12324,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -12387,11 +12387,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -12430,11 +12430,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -12473,11 +12473,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -12516,11 +12516,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -12577,7 +12577,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -12631,11 +12631,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -12674,11 +12674,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -12717,11 +12717,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -12760,11 +12760,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -12821,7 +12821,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -12875,11 +12875,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -12918,11 +12918,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -12961,11 +12961,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -13004,11 +13004,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -13121,13 +13121,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -13170,11 +13170,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -13215,11 +13215,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -13227,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -13260,11 +13260,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -13321,7 +13321,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -13383,11 +13383,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -13426,11 +13426,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -13469,11 +13469,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -13512,11 +13512,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -13573,7 +13573,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -13627,11 +13627,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -13670,11 +13670,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -13713,11 +13713,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -13756,11 +13756,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -13817,7 +13817,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -13871,11 +13871,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -13914,11 +13914,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -13957,11 +13957,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -14000,11 +14000,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -14062,21 +14062,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R1:AH2"/>
@@ -14093,6 +14078,21 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14105,8 +14105,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14128,92 +14128,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -14272,13 +14272,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -14321,11 +14321,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -14366,11 +14366,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -14411,11 +14411,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -14472,7 +14472,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -14535,11 +14535,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -14578,11 +14578,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -14621,11 +14621,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -14664,11 +14664,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -14725,7 +14725,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -14779,11 +14779,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -14822,11 +14822,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -14865,11 +14865,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -14908,11 +14908,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -14969,7 +14969,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -15023,11 +15023,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -15066,11 +15066,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -15109,11 +15109,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -15152,11 +15152,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -15269,13 +15269,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -15318,11 +15318,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58">
         <v>7.5</v>
       </c>
@@ -15377,11 +15377,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -15422,11 +15422,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>7.5</v>
@@ -15483,7 +15483,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -15546,11 +15546,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -15589,11 +15589,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -15632,11 +15632,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -15675,11 +15675,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -15736,7 +15736,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -15790,11 +15790,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -15833,11 +15833,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -15876,11 +15876,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -15919,11 +15919,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -15980,7 +15980,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -16034,11 +16034,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -16077,11 +16077,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -16120,11 +16120,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -16163,11 +16163,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -16280,13 +16280,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -16329,11 +16329,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -16341,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -16374,11 +16374,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -16419,11 +16419,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -16480,7 +16480,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -16542,11 +16542,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -16585,11 +16585,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -16628,11 +16628,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -16671,11 +16671,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -16732,7 +16732,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -16786,11 +16786,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -16829,11 +16829,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -16872,11 +16872,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -16915,11 +16915,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -16976,7 +16976,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -17030,11 +17030,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -17073,11 +17073,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -17116,11 +17116,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -17159,11 +17159,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -17221,24 +17221,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -17251,6 +17233,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17263,8 +17263,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A42" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17286,92 +17286,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -17430,13 +17430,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -17479,11 +17479,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -17524,11 +17524,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -17569,11 +17569,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -17630,7 +17630,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -17693,11 +17693,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -17736,11 +17736,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -17779,11 +17779,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -17822,11 +17822,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -17883,7 +17883,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -17937,11 +17937,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -17980,11 +17980,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -18023,11 +18023,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -18066,11 +18066,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -18127,7 +18127,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -18181,11 +18181,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -18224,11 +18224,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -18267,11 +18267,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -18310,11 +18310,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -18427,13 +18427,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58">
@@ -18490,11 +18490,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58">
         <v>0</v>
       </c>
@@ -18549,11 +18549,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58">
         <v>0</v>
       </c>
@@ -18608,11 +18608,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -18669,7 +18669,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -18732,11 +18732,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -18775,11 +18775,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -18818,11 +18818,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -18861,11 +18861,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -18922,7 +18922,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -18976,11 +18976,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -19019,11 +19019,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -19062,11 +19062,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -19105,11 +19105,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -19166,7 +19166,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -19220,11 +19220,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -19263,11 +19263,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -19306,11 +19306,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -19349,11 +19349,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -19466,13 +19466,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -19482,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -19515,11 +19515,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -19560,11 +19560,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -19572,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -19605,11 +19605,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -19666,7 +19666,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -19728,11 +19728,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -19771,11 +19771,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -19814,11 +19814,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -19857,11 +19857,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -19918,7 +19918,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -19972,11 +19972,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -20015,11 +20015,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -20058,11 +20058,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -20101,11 +20101,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -20162,7 +20162,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -20216,11 +20216,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -20259,11 +20259,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -20302,11 +20302,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -20345,11 +20345,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -20407,24 +20407,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -20437,6 +20419,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20447,98 +20447,98 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -20597,13 +20597,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -20646,11 +20646,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -20691,11 +20691,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -20736,11 +20736,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -20797,7 +20797,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -20860,11 +20860,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -20903,11 +20903,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -20946,11 +20946,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -20989,11 +20989,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -21050,7 +21050,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -21104,11 +21104,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -21147,11 +21147,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -21190,11 +21190,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -21233,11 +21233,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -21294,7 +21294,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -21348,11 +21348,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -21391,11 +21391,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -21434,11 +21434,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -21477,11 +21477,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -21594,13 +21594,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58">
@@ -21657,11 +21657,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58">
         <v>0</v>
       </c>
@@ -21716,11 +21716,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58">
         <v>0</v>
       </c>
@@ -21775,11 +21775,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -21836,7 +21836,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -21899,11 +21899,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -21942,11 +21942,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -21985,11 +21985,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -22028,11 +22028,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -22089,7 +22089,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -22143,11 +22143,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -22186,11 +22186,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -22229,11 +22229,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -22272,11 +22272,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -22333,7 +22333,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -22387,11 +22387,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -22430,11 +22430,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -22473,11 +22473,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -22516,11 +22516,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -22633,13 +22633,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -22682,11 +22682,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -22727,11 +22727,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -22772,11 +22772,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -22833,7 +22833,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -22895,11 +22895,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -22938,11 +22938,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -22981,11 +22981,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -23024,11 +23024,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -23085,7 +23085,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -23139,11 +23139,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -23182,11 +23182,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -23225,11 +23225,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -23268,11 +23268,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -23329,7 +23329,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -23383,11 +23383,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -23426,11 +23426,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -23469,11 +23469,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -23512,11 +23512,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -23574,20 +23574,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -23604,6 +23590,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23613,99 +23613,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A183CAA-4958-4441-AB23-468713AB7CE4}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -23764,13 +23764,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -23813,11 +23813,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -23858,11 +23858,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -23903,11 +23903,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -23964,7 +23964,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -24027,11 +24027,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -24070,11 +24070,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -24113,11 +24113,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -24156,11 +24156,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -24217,7 +24217,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -24271,11 +24271,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -24314,11 +24314,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -24357,11 +24357,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -24400,11 +24400,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -24461,7 +24461,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -24515,11 +24515,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -24558,11 +24558,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -24601,11 +24601,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -24644,11 +24644,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -24761,13 +24761,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58">
@@ -24824,11 +24824,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58">
         <v>0</v>
       </c>
@@ -24883,11 +24883,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58">
         <v>0</v>
       </c>
@@ -24942,11 +24942,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -25003,7 +25003,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -25066,11 +25066,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -25109,11 +25109,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -25152,11 +25152,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -25195,11 +25195,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -25256,7 +25256,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -25310,11 +25310,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -25353,11 +25353,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -25396,11 +25396,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -25439,11 +25439,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -25500,7 +25500,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -25554,11 +25554,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -25597,11 +25597,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -25640,11 +25640,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -25683,11 +25683,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -25800,13 +25800,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -25816,7 +25816,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -25849,11 +25849,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -25861,7 +25861,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -25894,11 +25894,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -25906,7 +25906,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -25939,11 +25939,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -26000,7 +26000,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -26062,11 +26062,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -26105,11 +26105,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -26148,11 +26148,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -26191,11 +26191,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -26252,7 +26252,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -26306,11 +26306,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -26349,11 +26349,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -26392,11 +26392,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -26435,11 +26435,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -26496,7 +26496,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -26550,11 +26550,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -26593,11 +26593,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -26636,11 +26636,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -26679,11 +26679,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -26741,20 +26741,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -26771,6 +26757,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workingTable/shifts_table.xlsx
+++ b/workingTable/shifts_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\workingTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFCF53-214D-406C-8B91-4B4BA9C7E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9212B4-CC18-4867-BEC6-A3735584FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="34">
   <si>
     <t>MARTINREA HFS</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Effective Length (Hrs)</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>ELCV</t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1468,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A3" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
@@ -1723,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -1768,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
@@ -1897,7 +1906,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -1935,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
@@ -1978,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
@@ -2021,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
@@ -2141,7 +2152,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -2179,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
@@ -2222,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
@@ -2265,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
@@ -2423,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -2466,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -2509,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
@@ -2675,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -2720,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
@@ -2765,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
@@ -2932,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -2975,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
@@ -3018,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
@@ -3176,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -3219,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
@@ -3262,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
@@ -3420,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
@@ -3463,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
@@ -3506,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
@@ -3672,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
@@ -3717,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
@@ -3762,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
@@ -3890,7 +3903,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -3928,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -3971,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
@@ -4014,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
@@ -4607,8 +4622,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4822,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
@@ -4867,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -4912,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
@@ -5041,7 +5056,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -5079,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
@@ -5122,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
@@ -5165,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
@@ -5285,7 +5302,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -5323,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
@@ -5366,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
@@ -5409,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
@@ -5567,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -5610,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -5653,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
@@ -5819,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -5864,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
@@ -5923,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
@@ -6090,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -6133,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
@@ -6176,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
@@ -6334,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -6377,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
@@ -6420,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
@@ -6578,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
@@ -6621,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
@@ -6664,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
@@ -6830,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
@@ -6875,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
@@ -6920,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
@@ -7048,7 +7067,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -7086,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -7129,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
@@ -7172,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
@@ -7765,8 +7786,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7980,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
@@ -8025,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -8070,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
@@ -8199,7 +8220,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -8237,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
@@ -8280,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
@@ -8323,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
@@ -8443,7 +8466,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -8481,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
@@ -8524,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
@@ -8567,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
@@ -8725,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -8768,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -8811,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
@@ -8977,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -9022,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
@@ -9067,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
@@ -9234,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -9277,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
@@ -9320,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
@@ -9478,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -9521,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
@@ -9564,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
@@ -9722,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
@@ -9765,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
@@ -9808,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
@@ -9974,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
@@ -10019,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
@@ -10064,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
@@ -10192,7 +10217,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -10230,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -10273,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
@@ -10316,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
@@ -10909,8 +10936,8 @@
   </sheetPr>
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11161,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
@@ -11206,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -11251,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
@@ -11380,7 +11407,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -11418,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
@@ -11461,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
@@ -11504,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
@@ -11624,7 +11653,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -11662,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
@@ -11705,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
@@ -11748,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
@@ -11906,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -11949,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -11992,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
@@ -12158,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -12168,17 +12199,17 @@
         <v>7.5</v>
       </c>
       <c r="E27" s="49">
-        <v>4.7195555555555559</v>
+        <v>4.4235555555555557</v>
       </c>
       <c r="F27" s="58">
         <f t="shared" ref="F27:F28" si="18">D27-E27</f>
-        <v>2.7804444444444441</v>
+        <v>3.0764444444444443</v>
       </c>
       <c r="G27" s="15">
         <v>59.2</v>
       </c>
       <c r="H27" s="20">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I27" s="16">
         <f>(D27*3600)/G27</f>
@@ -12186,83 +12217,97 @@
       </c>
       <c r="J27" s="16">
         <f>I27-H27</f>
-        <v>169.08108108108104</v>
+        <v>187.08108108108104</v>
       </c>
       <c r="K27" s="69">
         <f t="shared" ref="K27:K28" si="19">(N27+Q27)/D27</f>
-        <v>0.2870886790664115</v>
+        <v>0.32935457879172508</v>
       </c>
       <c r="L27" s="22">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M27" s="53">
         <f>(N27/D27)*100%</f>
-        <v>0.17573587904506333</v>
+        <v>0.17242954753063419</v>
       </c>
       <c r="N27" s="48">
-        <v>1.3180190928379749</v>
+        <v>1.2932216064797564</v>
       </c>
       <c r="O27" s="23">
         <v>8</v>
       </c>
       <c r="P27" s="53">
         <f t="shared" ref="P27:P28" si="20">Q27/D27</f>
-        <v>0.11135280002134816</v>
+        <v>0.15692503126109086</v>
       </c>
       <c r="Q27" s="48">
-        <v>0.8351460001601112</v>
+        <v>1.1769377344581815</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" ref="R27:R28" si="21">F27-(Q27+N27)</f>
-        <v>0.62727935144635794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.60628510350650622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="75"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="58">
+        <v>7.5</v>
+      </c>
+      <c r="E28" s="64">
+        <v>5.2786666666666671</v>
+      </c>
       <c r="F28" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.2213333333333329</v>
       </c>
       <c r="G28" s="15">
         <v>59.2</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="25">
+        <v>321</v>
+      </c>
       <c r="I28" s="16">
         <f>(D28*3600)/G28</f>
-        <v>0</v>
+        <v>456.08108108108104</v>
       </c>
       <c r="J28" s="16">
         <f>I28-H28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="69" t="e">
+        <v>135.08108108108104</v>
+      </c>
+      <c r="K28" s="69">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="53" t="e">
+        <v>0.24886493937174581</v>
+      </c>
+      <c r="L28" s="27">
+        <v>282</v>
+      </c>
+      <c r="M28" s="53">
         <f>(N28/D28)*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="62"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="53" t="e">
+        <v>0.20136456088136845</v>
+      </c>
+      <c r="N28" s="62">
+        <v>1.5102342066102634</v>
+      </c>
+      <c r="O28" s="28">
+        <v>3</v>
+      </c>
+      <c r="P28" s="53">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="48"/>
+        <v>4.750037849037736E-2</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>0.3562528386778302</v>
+      </c>
       <c r="R28" s="50">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.35484628804523943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
@@ -12270,28 +12315,28 @@
       <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="E29" s="59">
         <f>SUM(E26:E28)</f>
-        <v>4.7195555555555559</v>
+        <v>9.7022222222222219</v>
       </c>
       <c r="F29" s="59">
         <f>SUM(F26:F28)</f>
-        <v>2.7804444444444441</v>
+        <v>5.2977777777777773</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="30">
         <f>SUM(H26:H28)</f>
-        <v>287</v>
+        <v>590</v>
       </c>
       <c r="I29" s="32">
         <f>SUM(I26:I28)</f>
-        <v>456.08108108108104</v>
+        <v>912.16216216216208</v>
       </c>
       <c r="J29" s="32">
         <f>SUM(J26:J28)</f>
-        <v>169.08108108108104</v>
+        <v>322.16216216216208</v>
       </c>
       <c r="K29" s="33" t="e">
         <f>AVERAGE(K26:K28)</f>
@@ -12299,16 +12344,16 @@
       </c>
       <c r="L29" s="34">
         <f>SUM(L26:L28)</f>
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="M29" s="52"/>
       <c r="N29" s="56">
         <f>SUM(N26:N28)</f>
-        <v>1.3180190928379749</v>
+        <v>2.8034558130900198</v>
       </c>
       <c r="O29" s="35">
         <f>SUM(O26:O28)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P29" s="54" t="e">
         <f>AVERAGE(P26:P28)</f>
@@ -12316,11 +12361,11 @@
       </c>
       <c r="Q29" s="56">
         <f>SUM(Q26:Q28)</f>
-        <v>0.8351460001601112</v>
+        <v>1.5331905731360118</v>
       </c>
       <c r="R29" s="56">
         <f>SUM(R26:R28)</f>
-        <v>0.62727935144635794</v>
+        <v>0.96113139155174565</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12429,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -12472,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
@@ -12515,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
@@ -12673,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -12716,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
@@ -12759,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
@@ -12917,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
@@ -12960,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
@@ -13003,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
@@ -13169,97 +13214,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="75"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="49"/>
+      <c r="D47" s="58">
+        <v>6.296170289648904</v>
+      </c>
+      <c r="E47" s="49">
+        <v>4.4400000000000004</v>
+      </c>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
-        <v>0</v>
+        <v>1.8561702896489036</v>
       </c>
       <c r="G47" s="21">
         <v>48</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="20">
+        <v>333</v>
+      </c>
       <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>0</v>
+        <v>472.2127717236678</v>
       </c>
       <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="69" t="e">
+        <v>139.2127717236678</v>
+      </c>
+      <c r="K47" s="69">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="53" t="e">
+        <v>0.32457912592130073</v>
+      </c>
+      <c r="L47" s="22">
+        <v>141</v>
+      </c>
+      <c r="M47" s="53">
         <f>(N47/D47)*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="53" t="e">
+        <v>0.19103395860560735</v>
+      </c>
+      <c r="N47" s="48">
+        <v>1.2027823344866435</v>
+      </c>
+      <c r="O47" s="23">
+        <v>5</v>
+      </c>
+      <c r="P47" s="53">
         <f t="shared" ref="P47:P48" si="38">Q47/D47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="48"/>
+        <v>0.13354516731569335</v>
+      </c>
+      <c r="Q47" s="48">
+        <v>0.84082311477926042</v>
+      </c>
       <c r="R47" s="50">
         <f t="shared" ref="R47:R48" si="39">F47-(Q47+N47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.1874351596170003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="75"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="58">
+        <v>7.5</v>
+      </c>
+      <c r="E48" s="64">
+        <v>5.04</v>
+      </c>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="G48" s="26">
         <v>48</v>
       </c>
-      <c r="H48" s="25"/>
+      <c r="H48" s="25">
+        <v>378</v>
+      </c>
       <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>0</v>
+        <v>562.5</v>
       </c>
       <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="69" t="e">
+        <v>184.5</v>
+      </c>
+      <c r="K48" s="69">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="53" t="e">
+        <v>4.8887504259745279E-2</v>
+      </c>
+      <c r="L48" s="27">
+        <v>22</v>
+      </c>
+      <c r="M48" s="53">
         <f>(N48/D48)*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="62"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="53" t="e">
+        <v>3.8190607706705723E-2</v>
+      </c>
+      <c r="N48" s="62">
+        <v>0.28642955780029294</v>
+      </c>
+      <c r="O48" s="28">
+        <v>1</v>
+      </c>
+      <c r="P48" s="53">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="48"/>
+        <v>1.0696896553039551E-2</v>
+      </c>
+      <c r="Q48" s="48">
+        <v>8.0226724147796635E-2</v>
+      </c>
       <c r="R48" s="50">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.0933437180519103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
@@ -13267,28 +13340,28 @@
       <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
-        <v>0</v>
+        <v>13.796170289648904</v>
       </c>
       <c r="E49" s="59">
         <f>SUM(E46:E48)</f>
-        <v>0</v>
+        <v>9.48</v>
       </c>
       <c r="F49" s="59">
         <f>SUM(F46:F48)</f>
-        <v>0</v>
+        <v>4.3161702896489036</v>
       </c>
       <c r="G49" s="31"/>
       <c r="H49" s="30">
         <f>SUM(H46:H48)</f>
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>0</v>
+        <v>1034.7127717236679</v>
       </c>
       <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>0</v>
+        <v>323.7127717236678</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -13296,16 +13369,16 @@
       </c>
       <c r="L49" s="34">
         <f>SUM(L46:L48)</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="M49" s="52"/>
       <c r="N49" s="56">
         <f>SUM(N46:N48)</f>
-        <v>0</v>
+        <v>1.4892118922869364</v>
       </c>
       <c r="O49" s="35">
         <f>SUM(O46:O48)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P49" s="54" t="e">
         <f>AVERAGE(P46:P48)</f>
@@ -13313,11 +13386,11 @@
       </c>
       <c r="Q49" s="56">
         <f>SUM(Q46:Q48)</f>
-        <v>0</v>
+        <v>0.92104983892705705</v>
       </c>
       <c r="R49" s="56">
         <f>SUM(R46:R48)</f>
-        <v>0</v>
+        <v>1.90590855843491</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13387,7 +13460,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -13425,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -13468,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
@@ -13511,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
@@ -14105,8 +14180,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14320,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
@@ -14365,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -14410,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
@@ -14539,7 +14614,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -14577,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
@@ -14620,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
@@ -14663,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
@@ -14783,7 +14860,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -14821,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
@@ -14864,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
@@ -14907,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
@@ -15065,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -15108,7 +15187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -15151,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
@@ -15317,66 +15396,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="75"/>
-      <c r="D27" s="58">
-        <v>7.5</v>
-      </c>
-      <c r="E27" s="49">
-        <v>4.8511111111111109</v>
-      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="58">
         <f t="shared" ref="F27:F28" si="18">D27-E27</f>
-        <v>2.6488888888888891</v>
+        <v>0</v>
       </c>
       <c r="G27" s="15">
         <v>59.2</v>
       </c>
-      <c r="H27" s="20">
-        <v>295</v>
-      </c>
+      <c r="H27" s="20"/>
       <c r="I27" s="16">
         <f>(D27*3600)/G27</f>
-        <v>456.08108108108104</v>
+        <v>0</v>
       </c>
       <c r="J27" s="16">
         <f>I27-H27</f>
-        <v>161.08108108108104</v>
-      </c>
-      <c r="K27" s="69">
+        <v>0</v>
+      </c>
+      <c r="K27" s="69" t="e">
         <f t="shared" ref="K27:K28" si="19">(N27+Q27)/D27</f>
-        <v>0.27632635568689506</v>
-      </c>
-      <c r="L27" s="22">
-        <v>238</v>
-      </c>
-      <c r="M27" s="53">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="53" t="e">
         <f>(N27/D27)*100%</f>
-        <v>0.20260360261775917</v>
-      </c>
-      <c r="N27" s="48">
-        <v>1.5195270196331938</v>
-      </c>
-      <c r="O27" s="23">
-        <v>7</v>
-      </c>
-      <c r="P27" s="53">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="48"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="53" t="e">
         <f t="shared" ref="P27:P28" si="20">Q27/D27</f>
-        <v>7.3722753069135866E-2</v>
-      </c>
-      <c r="Q27" s="48">
-        <v>0.55292064801851903</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="48"/>
       <c r="R27" s="50">
         <f t="shared" ref="R27:R28" si="21">F27-(Q27+N27)</f>
-        <v>0.57644122123717612</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
@@ -15421,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
@@ -15429,28 +15494,28 @@
       <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="59">
         <f>SUM(E26:E28)</f>
-        <v>4.8511111111111109</v>
+        <v>0</v>
       </c>
       <c r="F29" s="59">
         <f>SUM(F26:F28)</f>
-        <v>2.6488888888888891</v>
+        <v>0</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="30">
         <f>SUM(H26:H28)</f>
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="I29" s="32">
         <f>SUM(I26:I28)</f>
-        <v>456.08108108108104</v>
+        <v>0</v>
       </c>
       <c r="J29" s="32">
         <f>SUM(J26:J28)</f>
-        <v>161.08108108108104</v>
+        <v>0</v>
       </c>
       <c r="K29" s="33" t="e">
         <f>AVERAGE(K26:K28)</f>
@@ -15458,16 +15523,16 @@
       </c>
       <c r="L29" s="34">
         <f>SUM(L26:L28)</f>
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="M29" s="52"/>
       <c r="N29" s="56">
         <f>SUM(N26:N28)</f>
-        <v>1.5195270196331938</v>
+        <v>0</v>
       </c>
       <c r="O29" s="35">
         <f>SUM(O26:O28)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P29" s="54" t="e">
         <f>AVERAGE(P26:P28)</f>
@@ -15475,11 +15540,11 @@
       </c>
       <c r="Q29" s="56">
         <f>SUM(Q26:Q28)</f>
-        <v>0.55292064801851903</v>
+        <v>0</v>
       </c>
       <c r="R29" s="56">
         <f>SUM(R26:R28)</f>
-        <v>0.57644122123717612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15588,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -15631,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
@@ -15674,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
@@ -15832,7 +15897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -15875,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
@@ -15918,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
@@ -16076,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
@@ -16119,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
@@ -16162,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
@@ -16328,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
@@ -16373,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
@@ -16418,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
@@ -16546,7 +16611,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -16584,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -16627,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
@@ -16670,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
@@ -17263,8 +17330,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C51" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17697,7 +17764,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -17941,7 +18010,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -19732,7 +19803,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -20446,8 +20519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C4095-B736-4F0D-A83E-FB76969E7CED}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20645,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
@@ -20690,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -20735,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
@@ -20864,7 +20937,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -20902,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
@@ -20945,7 +21020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
@@ -20988,7 +21063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
@@ -21108,7 +21183,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -21146,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
@@ -21189,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
@@ -21232,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
@@ -21390,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -21433,7 +21510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -21476,7 +21553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
@@ -21656,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -21715,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
@@ -21774,7 +21851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
@@ -21941,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -21984,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
@@ -22027,7 +22104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
@@ -22185,7 +22262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -22228,7 +22305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
@@ -22271,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
@@ -22429,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
@@ -22472,7 +22549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
@@ -22515,7 +22592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
@@ -22681,7 +22758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
@@ -22726,7 +22803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
@@ -22771,7 +22848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
@@ -22899,7 +22976,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -22937,7 +23016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -22980,7 +23059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
@@ -23023,7 +23102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
@@ -23613,8 +23692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A183CAA-4958-4441-AB23-468713AB7CE4}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23812,7 +23891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
@@ -23857,7 +23936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -23902,7 +23981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
@@ -24031,7 +24110,9 @@
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -24069,7 +24150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
@@ -24112,7 +24193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
@@ -24155,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
@@ -24275,7 +24356,9 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -24313,7 +24396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
@@ -24356,7 +24439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
@@ -24399,7 +24482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
@@ -24557,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -24600,7 +24683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
@@ -24643,7 +24726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
@@ -24823,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -24882,7 +24965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
@@ -24941,7 +25024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
@@ -25108,7 +25191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -25151,7 +25234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
@@ -25194,7 +25277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
@@ -25352,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -25395,7 +25478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
@@ -25438,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
@@ -25596,7 +25679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
@@ -25639,7 +25722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
@@ -25682,7 +25765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
@@ -25848,7 +25931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
@@ -25893,7 +25976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
@@ -25938,7 +26021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
@@ -26066,7 +26149,9 @@
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="74" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -26104,7 +26189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
@@ -26147,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
@@ -26190,7 +26275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>

--- a/workingTable/shifts_table.xlsx
+++ b/workingTable/shifts_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\workingTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30CABF4-16CA-46FF-BF25-681CEE50C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{937AC12D-AF28-40EA-85CF-C2E0AD30E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17268" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17268" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -1053,22 +1053,43 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,43 +1137,22 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1489,92 +1489,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1633,13 +1633,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -1659,11 +1659,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -1681,11 +1681,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -1703,11 +1703,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -1821,11 +1821,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -1848,11 +1848,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -1873,11 +1873,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -1898,11 +1898,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -1953,7 +1953,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2007,11 +2007,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -2034,11 +2034,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -2059,11 +2059,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -2084,11 +2084,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -2139,7 +2139,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2193,11 +2193,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -2236,11 +2236,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -2279,11 +2279,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -2322,11 +2322,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -2439,13 +2439,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -2488,11 +2488,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -2533,11 +2533,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -2578,11 +2578,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -2639,7 +2639,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="12">B25</f>
         <v>Shift</v>
@@ -2702,11 +2702,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -2745,11 +2745,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -2788,11 +2788,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -2831,11 +2831,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -2892,7 +2892,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -2946,11 +2946,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -2989,11 +2989,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -3075,11 +3075,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -3136,7 +3136,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3190,11 +3190,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -3233,11 +3233,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -3276,11 +3276,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -3319,11 +3319,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -3436,13 +3436,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -3485,11 +3485,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -3530,11 +3530,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -3575,11 +3575,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="30">B45</f>
         <v>Shift</v>
@@ -3698,11 +3698,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -3745,11 +3745,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -3790,11 +3790,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -3835,11 +3835,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -3950,11 +3950,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -3993,11 +3993,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -4036,11 +4036,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -4079,11 +4079,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -4140,7 +4140,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -4194,11 +4194,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -4237,11 +4237,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -4280,11 +4280,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -4323,11 +4323,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -4385,6 +4385,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4395,26 +4415,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4450,92 +4450,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4594,13 +4594,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -4620,11 +4620,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -4642,11 +4642,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58">
         <v>12</v>
       </c>
@@ -4678,11 +4678,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>12</v>
@@ -4733,7 +4733,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -4796,11 +4796,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -4820,11 +4820,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -4842,11 +4842,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -4864,11 +4864,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4973,11 +4973,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -4997,11 +4997,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58">
         <v>7.5</v>
       </c>
@@ -5021,11 +5021,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58">
         <v>7.5</v>
       </c>
@@ -5045,11 +5045,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>15</v>
@@ -5100,7 +5100,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -5154,11 +5154,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -5197,11 +5197,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -5240,11 +5240,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -5283,11 +5283,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -5400,13 +5400,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -5449,11 +5449,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58">
         <v>7.5</v>
       </c>
@@ -5508,11 +5508,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58">
         <v>7.5</v>
       </c>
@@ -5567,11 +5567,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>15</v>
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -5691,11 +5691,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -5734,11 +5734,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -5777,11 +5777,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -5820,11 +5820,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -5881,7 +5881,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -5935,11 +5935,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -5978,11 +5978,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -6021,11 +6021,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -6064,11 +6064,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -6125,7 +6125,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -6179,11 +6179,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -6222,11 +6222,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -6265,11 +6265,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -6308,11 +6308,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -6425,13 +6425,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -6474,11 +6474,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58">
         <v>7.5</v>
       </c>
@@ -6533,11 +6533,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58">
         <v>0</v>
       </c>
@@ -6592,11 +6592,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>7.5</v>
@@ -6653,7 +6653,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -6715,11 +6715,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -6762,11 +6762,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58">
         <v>0</v>
       </c>
@@ -6821,11 +6821,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58">
         <v>0</v>
       </c>
@@ -6880,11 +6880,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -6995,11 +6995,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -7038,11 +7038,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -7081,11 +7081,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -7124,11 +7124,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -7185,7 +7185,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -7239,11 +7239,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -7282,11 +7282,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -7325,11 +7325,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -7368,11 +7368,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -7430,6 +7430,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -7440,26 +7460,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7495,92 +7495,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -7639,13 +7639,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -7665,11 +7665,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58">
         <v>12</v>
       </c>
@@ -7701,11 +7701,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -7723,11 +7723,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>12</v>
@@ -7778,7 +7778,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -7841,11 +7841,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -7865,11 +7865,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -7887,11 +7887,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -7909,11 +7909,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -8018,11 +8018,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -8042,11 +8042,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -8064,11 +8064,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -8086,11 +8086,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8195,11 +8195,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -8238,11 +8238,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -8281,11 +8281,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -8324,11 +8324,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8441,13 +8441,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58">
@@ -8504,11 +8504,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58">
         <v>12</v>
       </c>
@@ -8563,11 +8563,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -8608,11 +8608,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>24</v>
@@ -8669,7 +8669,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -8732,11 +8732,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -8775,11 +8775,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -8818,11 +8818,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -8861,11 +8861,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -8922,7 +8922,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -8976,11 +8976,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -9019,11 +9019,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -9062,11 +9062,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -9105,11 +9105,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -9166,7 +9166,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -9220,11 +9220,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -9263,11 +9263,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -9306,11 +9306,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -9349,11 +9349,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -9466,13 +9466,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -9515,11 +9515,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -9560,11 +9560,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -9605,11 +9605,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -9666,7 +9666,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -9728,11 +9728,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -9775,11 +9775,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -9820,11 +9820,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -9865,11 +9865,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -9926,7 +9926,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -9980,11 +9980,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -10023,11 +10023,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -10066,11 +10066,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -10109,11 +10109,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -10170,7 +10170,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -10224,11 +10224,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -10267,11 +10267,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -10310,11 +10310,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -10353,11 +10353,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -10415,6 +10415,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -10425,26 +10445,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10483,126 +10483,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="86"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="92"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -10661,13 +10661,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -10687,11 +10687,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -10709,11 +10709,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -10731,11 +10731,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -10786,7 +10786,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -10849,11 +10849,11 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -10873,11 +10873,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -10895,11 +10895,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -10917,11 +10917,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -10972,7 +10972,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -11026,11 +11026,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -11050,11 +11050,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -11072,11 +11072,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -11094,11 +11094,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -11149,7 +11149,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11203,11 +11203,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -11246,11 +11246,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -11289,11 +11289,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -11332,11 +11332,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -11449,13 +11449,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -11498,11 +11498,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -11543,11 +11543,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -11588,11 +11588,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -11649,7 +11649,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -11712,11 +11712,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -11755,11 +11755,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -11798,11 +11798,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -11841,11 +11841,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -11902,7 +11902,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -11956,11 +11956,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -11999,11 +11999,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -12042,11 +12042,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -12085,11 +12085,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -12146,7 +12146,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -12200,11 +12200,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -12243,11 +12243,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -12286,11 +12286,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -12329,11 +12329,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -12446,13 +12446,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -12495,11 +12495,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -12540,11 +12540,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -12585,11 +12585,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -12646,7 +12646,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -12708,11 +12708,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -12755,11 +12755,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -12800,11 +12800,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -12845,11 +12845,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -12906,7 +12906,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -12960,11 +12960,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -13003,11 +13003,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -13046,11 +13046,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -13089,11 +13089,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -13150,7 +13150,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -13204,11 +13204,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -13247,11 +13247,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -13290,11 +13290,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -13333,11 +13333,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -13395,6 +13395,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R1:AH2"/>
@@ -13411,21 +13426,6 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13461,92 +13461,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -13605,13 +13605,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -13631,11 +13631,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -13653,11 +13653,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -13675,11 +13675,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -13730,7 +13730,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -13793,11 +13793,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -13817,11 +13817,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -13839,11 +13839,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -13861,11 +13861,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -13916,7 +13916,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -13970,11 +13970,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -13994,11 +13994,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -14016,11 +14016,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -14038,11 +14038,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -14093,7 +14093,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -14147,11 +14147,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -14190,11 +14190,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -14233,11 +14233,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -14276,11 +14276,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -14393,13 +14393,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -14442,11 +14442,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -14487,11 +14487,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -14532,11 +14532,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -14593,7 +14593,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -14656,11 +14656,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -14699,11 +14699,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -14742,11 +14742,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -14785,11 +14785,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -14846,7 +14846,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -14900,11 +14900,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -14943,11 +14943,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -14986,11 +14986,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -15029,11 +15029,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -15090,7 +15090,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -15144,11 +15144,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -15187,11 +15187,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -15230,11 +15230,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -15273,11 +15273,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -15390,13 +15390,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -15439,11 +15439,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -15484,11 +15484,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -15529,11 +15529,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -15590,7 +15590,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -15652,11 +15652,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -15699,11 +15699,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -15744,11 +15744,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -15789,11 +15789,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -15850,7 +15850,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -15904,11 +15904,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -15947,11 +15947,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -15990,11 +15990,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -16033,11 +16033,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -16094,7 +16094,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -16148,11 +16148,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -16191,11 +16191,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -16234,11 +16234,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -16277,11 +16277,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -16339,6 +16339,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -16351,24 +16369,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16404,92 +16404,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -16548,13 +16548,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -16574,11 +16574,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -16596,11 +16596,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -16618,11 +16618,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -16673,7 +16673,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -16736,11 +16736,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -16760,11 +16760,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -16782,11 +16782,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -16804,11 +16804,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -16859,7 +16859,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -16913,11 +16913,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -16937,11 +16937,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -16959,11 +16959,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -16981,11 +16981,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -17036,7 +17036,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -17090,11 +17090,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -17133,11 +17133,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -17176,11 +17176,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -17219,11 +17219,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -17336,13 +17336,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -17385,11 +17385,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -17430,11 +17430,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -17475,11 +17475,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -17536,7 +17536,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -17599,11 +17599,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -17642,11 +17642,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -17685,11 +17685,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -17728,11 +17728,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -17789,7 +17789,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -17843,11 +17843,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -17886,11 +17886,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -17929,11 +17929,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -17972,11 +17972,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -18033,7 +18033,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -18087,11 +18087,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -18130,11 +18130,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -18173,11 +18173,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -18216,11 +18216,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -18333,13 +18333,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -18382,11 +18382,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -18427,11 +18427,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -18472,11 +18472,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -18533,7 +18533,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -18595,11 +18595,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -18642,11 +18642,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -18687,11 +18687,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -18732,11 +18732,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -18793,7 +18793,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -18847,11 +18847,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -18890,11 +18890,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -18933,11 +18933,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -18976,11 +18976,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -19037,7 +19037,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -19091,11 +19091,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -19134,11 +19134,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -19177,11 +19177,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -19220,11 +19220,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -19282,6 +19282,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -19294,24 +19312,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19328,92 +19328,92 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -19472,13 +19472,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -19498,11 +19498,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -19520,11 +19520,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -19542,11 +19542,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -19597,7 +19597,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -19660,11 +19660,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -19684,11 +19684,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -19706,11 +19706,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -19728,11 +19728,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -19783,7 +19783,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -19837,11 +19837,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -19861,11 +19861,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -19883,11 +19883,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -19905,11 +19905,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -19960,7 +19960,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -20014,11 +20014,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -20057,11 +20057,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -20100,11 +20100,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -20143,11 +20143,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -20260,13 +20260,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -20309,11 +20309,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -20354,11 +20354,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -20399,11 +20399,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -20460,7 +20460,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -20523,11 +20523,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -20566,11 +20566,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -20609,11 +20609,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -20652,11 +20652,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -20713,7 +20713,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -20767,11 +20767,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -20810,11 +20810,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -20853,11 +20853,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -20896,11 +20896,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -20957,7 +20957,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -21011,11 +21011,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -21054,11 +21054,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -21097,11 +21097,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -21140,11 +21140,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -21257,13 +21257,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -21306,11 +21306,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -21351,11 +21351,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -21396,11 +21396,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -21457,7 +21457,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -21519,11 +21519,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -21566,11 +21566,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -21611,11 +21611,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -21656,11 +21656,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -21717,7 +21717,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -21771,11 +21771,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -21814,11 +21814,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -21857,11 +21857,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -21900,11 +21900,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -21961,7 +21961,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -22015,11 +22015,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -22058,11 +22058,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -22101,11 +22101,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -22144,11 +22144,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -22206,6 +22206,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -22222,20 +22236,6 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22252,92 +22252,92 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -22396,13 +22396,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -22422,11 +22422,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -22444,11 +22444,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -22466,11 +22466,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -22521,7 +22521,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -22584,11 +22584,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -22608,11 +22608,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -22630,11 +22630,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -22652,11 +22652,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -22707,7 +22707,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -22761,11 +22761,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -22785,11 +22785,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -22807,11 +22807,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -22829,11 +22829,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -22884,7 +22884,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -22938,11 +22938,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -22981,11 +22981,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -23024,11 +23024,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -23067,11 +23067,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -23184,13 +23184,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -23233,11 +23233,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -23278,11 +23278,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -23323,11 +23323,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -23384,7 +23384,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -23447,11 +23447,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -23490,11 +23490,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -23533,11 +23533,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -23576,11 +23576,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -23637,7 +23637,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -23691,11 +23691,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -23734,11 +23734,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -23777,11 +23777,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -23820,11 +23820,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -23881,7 +23881,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -23935,11 +23935,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -23978,11 +23978,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -24021,11 +24021,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -24064,11 +24064,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -24181,13 +24181,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -24230,11 +24230,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -24275,11 +24275,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -24320,11 +24320,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -24381,7 +24381,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -24443,11 +24443,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -24490,11 +24490,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -24535,11 +24535,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -24580,11 +24580,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -24641,7 +24641,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -24695,11 +24695,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -24738,11 +24738,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -24781,11 +24781,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -24824,11 +24824,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -24885,7 +24885,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -24939,11 +24939,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -24982,11 +24982,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -25025,11 +25025,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -25068,11 +25068,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -25130,6 +25130,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -25146,20 +25160,6 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workingTable/shifts_table.xlsx
+++ b/workingTable/shifts_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\workingTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{937AC12D-AF28-40EA-85CF-C2E0AD30E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C77F6DCA-AF21-4603-8AE1-F2244BA18EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17268" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17268" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -7706,7 +7706,9 @@
         <v>17</v>
       </c>
       <c r="C8" s="103"/>
-      <c r="D8" s="58"/>
+      <c r="D8" s="58">
+        <v>6.0441144407457772</v>
+      </c>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
       <c r="G8" s="26"/>
@@ -7730,7 +7732,7 @@
       <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
-        <v>12</v>
+        <v>18.044114440745776</v>
       </c>
       <c r="E9" s="59">
         <f>SUM(E6:E8)</f>
@@ -7892,7 +7894,9 @@
         <v>17</v>
       </c>
       <c r="C13" s="103"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="58">
+        <v>0</v>
+      </c>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
       <c r="G13" s="26"/>
@@ -8025,7 +8029,9 @@
       <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="58">
+        <v>6.1211657509538862</v>
+      </c>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="G16" s="15"/>
@@ -8069,7 +8075,9 @@
         <v>17</v>
       </c>
       <c r="C18" s="103"/>
-      <c r="D18" s="58"/>
+      <c r="D18" s="58">
+        <v>7.5</v>
+      </c>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
       <c r="G18" s="26"/>
@@ -8093,7 +8101,7 @@
       <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
-        <v>0</v>
+        <v>13.621165750953885</v>
       </c>
       <c r="E19" s="59">
         <f>SUM(E16:E18)</f>
@@ -8451,56 +8459,56 @@
         <v>21</v>
       </c>
       <c r="D26" s="58">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="E26" s="58">
-        <v>10</v>
+        <v>1.6444444444444446E-2</v>
       </c>
       <c r="F26" s="58">
         <f>D26-E26</f>
-        <v>2</v>
+        <v>7.4835555555555553</v>
       </c>
       <c r="G26" s="15">
         <v>59.2</v>
       </c>
       <c r="H26" s="14">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="I26" s="16">
         <f>(D26*3600)/G26</f>
-        <v>729.72972972972968</v>
+        <v>456.08108108108104</v>
       </c>
       <c r="J26" s="16">
         <f>I26-H26</f>
-        <v>474.72972972972968</v>
+        <v>455.08108108108104</v>
       </c>
       <c r="K26" s="69">
         <f>(N26+Q26)/D26</f>
-        <v>2.4189814814814817E-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="53">
         <f>(N26/D26)*100%</f>
-        <v>8.2638888888888883E-3</v>
+        <v>0</v>
       </c>
       <c r="N26" s="50">
-        <v>9.9166666666666667E-2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="53">
         <f>Q26/D26</f>
-        <v>1.5925925925925927E-2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="50">
-        <v>0.19111111111111112</v>
+        <v>0</v>
       </c>
       <c r="R26" s="50">
         <f>F26-(Q26+N26)</f>
-        <v>1.7097222222222221</v>
+        <v>7.4835555555555553</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8510,56 +8518,56 @@
       </c>
       <c r="C27" s="103"/>
       <c r="D27" s="58">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="E27" s="49">
-        <v>10</v>
+        <v>5.1964444444444444</v>
       </c>
       <c r="F27" s="58">
         <f t="shared" ref="F27:F28" si="6">D27-E27</f>
-        <v>2</v>
+        <v>2.3035555555555556</v>
       </c>
       <c r="G27" s="15">
         <v>59.2</v>
       </c>
       <c r="H27" s="20">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="I27" s="16">
         <f>(D27*3600)/G27</f>
-        <v>729.72972972972968</v>
+        <v>456.08108108108104</v>
       </c>
       <c r="J27" s="16">
         <f>I27-H27</f>
-        <v>474.72972972972968</v>
+        <v>140.08108108108104</v>
       </c>
       <c r="K27" s="69">
         <f t="shared" ref="K27:K28" si="7">(N27+Q27)/D27</f>
-        <v>2.4189814814814817E-2</v>
+        <v>0.25354902999136281</v>
       </c>
       <c r="L27" s="22">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="M27" s="53">
         <f>(N27/D27)*100%</f>
-        <v>8.2638888888888883E-3</v>
+        <v>0.20748065957140135</v>
       </c>
       <c r="N27" s="48">
-        <v>9.9166666666666667E-2</v>
+        <v>1.5561049467855101</v>
       </c>
       <c r="O27" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P27" s="53">
         <f t="shared" ref="P27:P28" si="8">Q27/D27</f>
-        <v>1.5925925925925927E-2</v>
+        <v>4.6068370419961438E-2</v>
       </c>
       <c r="Q27" s="48">
-        <v>0.19111111111111112</v>
+        <v>0.34551277814971076</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" ref="R27:R28" si="9">F27-(Q27+N27)</f>
-        <v>1.7097222222222221</v>
+        <v>0.40193783062033472</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8568,43 +8576,57 @@
         <v>17</v>
       </c>
       <c r="C28" s="103"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="58">
+        <v>7.5</v>
+      </c>
+      <c r="E28" s="64">
+        <v>4.4235555555555557</v>
+      </c>
       <c r="F28" s="58">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.0764444444444443</v>
       </c>
       <c r="G28" s="15">
         <v>59.2</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="25">
+        <v>269</v>
+      </c>
       <c r="I28" s="16">
         <f>(D28*3600)/G28</f>
-        <v>0</v>
+        <v>456.08108108108104</v>
       </c>
       <c r="J28" s="16">
         <f>I28-H28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="69" t="e">
+        <v>187.08108108108104</v>
+      </c>
+      <c r="K28" s="69">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="53" t="e">
+        <v>0.36362979921764887</v>
+      </c>
+      <c r="L28" s="27">
+        <v>237</v>
+      </c>
+      <c r="M28" s="53">
         <f>(N28/D28)*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="62"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="53" t="e">
+        <v>0.24856649652587129</v>
+      </c>
+      <c r="N28" s="62">
+        <v>1.8642487239440346</v>
+      </c>
+      <c r="O28" s="28">
+        <v>9</v>
+      </c>
+      <c r="P28" s="53">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="48"/>
+        <v>0.11506330269177757</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>0.8629747701883318</v>
+      </c>
       <c r="R28" s="50">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.34922095031207778</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8615,57 +8637,57 @@
       <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="E29" s="59">
         <f>SUM(E26:E28)</f>
-        <v>20</v>
+        <v>9.6364444444444448</v>
       </c>
       <c r="F29" s="59">
         <f>SUM(F26:F28)</f>
-        <v>4</v>
+        <v>12.863555555555555</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="30">
         <f>SUM(H26:H28)</f>
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="I29" s="32">
         <f>SUM(I26:I28)</f>
-        <v>1459.4594594594594</v>
+        <v>1368.2432432432431</v>
       </c>
       <c r="J29" s="32">
         <f>SUM(J26:J28)</f>
-        <v>949.45945945945937</v>
-      </c>
-      <c r="K29" s="33" t="e">
+        <v>782.24324324324311</v>
+      </c>
+      <c r="K29" s="33">
         <f>AVERAGE(K26:K28)</f>
-        <v>#DIV/0!</v>
+        <v>0.20572627640300389</v>
       </c>
       <c r="L29" s="34">
         <f>SUM(L26:L28)</f>
-        <v>2</v>
+        <v>486</v>
       </c>
       <c r="M29" s="52"/>
       <c r="N29" s="56">
         <f>SUM(N26:N28)</f>
-        <v>0.19833333333333333</v>
+        <v>3.4203536707295448</v>
       </c>
       <c r="O29" s="35">
         <f>SUM(O26:O28)</f>
-        <v>4</v>
-      </c>
-      <c r="P29" s="54" t="e">
+        <v>13</v>
+      </c>
+      <c r="P29" s="54">
         <f>AVERAGE(P26:P28)</f>
-        <v>#DIV/0!</v>
+        <v>5.3710557703913003E-2</v>
       </c>
       <c r="Q29" s="56">
         <f>SUM(Q26:Q28)</f>
-        <v>0.38222222222222224</v>
+        <v>1.2084875483380426</v>
       </c>
       <c r="R29" s="56">
         <f>SUM(R26:R28)</f>
-        <v>3.4194444444444443</v>
+        <v>8.2347143364879685</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9735,43 +9757,57 @@
       <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
+      <c r="D51" s="58">
+        <v>0</v>
+      </c>
+      <c r="E51" s="58">
+        <v>7.9118333333333331</v>
+      </c>
       <c r="F51" s="58">
         <f>D51-E51</f>
-        <v>0</v>
+        <v>-7.9118333333333331</v>
       </c>
       <c r="G51" s="15">
         <v>384.9</v>
       </c>
-      <c r="H51" s="14"/>
+      <c r="H51" s="14">
+        <v>74</v>
+      </c>
       <c r="I51" s="16">
         <f>(D51*3600)/G51</f>
         <v>0</v>
       </c>
       <c r="J51" s="16">
         <f>I51-H51</f>
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="K51" s="69" t="e">
         <f>(N51+Q51)/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="17"/>
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
       <c r="M51" s="53" t="e">
         <f>(N51/D51)*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N51" s="50"/>
-      <c r="O51" s="18"/>
+      <c r="N51" s="50">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18">
+        <v>0</v>
+      </c>
       <c r="P51" s="53" t="e">
         <f>Q51/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q51" s="50"/>
+      <c r="Q51" s="50">
+        <v>0</v>
+      </c>
       <c r="R51" s="50">
         <f>F51-(Q51+N51)</f>
-        <v>0</v>
+        <v>-7.9118333333333331</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9780,43 +9816,57 @@
         <v>16</v>
       </c>
       <c r="C52" s="103"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="49"/>
+      <c r="D52" s="58">
+        <v>0</v>
+      </c>
+      <c r="E52" s="49">
+        <v>7.9118333333333331</v>
+      </c>
       <c r="F52" s="58">
         <f t="shared" ref="F52:F53" si="30">D52-E52</f>
-        <v>0</v>
+        <v>-7.9118333333333331</v>
       </c>
       <c r="G52" s="15">
         <v>384.9</v>
       </c>
-      <c r="H52" s="20"/>
+      <c r="H52" s="20">
+        <v>74</v>
+      </c>
       <c r="I52" s="16">
         <f>(D52*3600)/G52</f>
         <v>0</v>
       </c>
       <c r="J52" s="16">
         <f>I52-H52</f>
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="K52" s="69" t="e">
         <f t="shared" ref="K52:K53" si="31">(N52+Q52)/D52</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="22"/>
+      <c r="L52" s="22">
+        <v>0</v>
+      </c>
       <c r="M52" s="53" t="e">
         <f>(N52/D52)*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N52" s="48"/>
-      <c r="O52" s="23"/>
+      <c r="N52" s="48">
+        <v>0</v>
+      </c>
+      <c r="O52" s="23">
+        <v>0</v>
+      </c>
       <c r="P52" s="53" t="e">
         <f t="shared" ref="P52:P53" si="32">Q52/D52</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q52" s="48"/>
+      <c r="Q52" s="48">
+        <v>0</v>
+      </c>
       <c r="R52" s="50">
         <f t="shared" ref="R52:R53" si="33">F52-(Q52+N52)</f>
-        <v>0</v>
+        <v>-7.9118333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9825,43 +9875,57 @@
         <v>17</v>
       </c>
       <c r="C53" s="103"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="64"/>
+      <c r="D53" s="58">
+        <v>0</v>
+      </c>
+      <c r="E53" s="64">
+        <v>4.0628333333333329</v>
+      </c>
       <c r="F53" s="58">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>-4.0628333333333329</v>
       </c>
       <c r="G53" s="15">
         <v>384.9</v>
       </c>
-      <c r="H53" s="25"/>
+      <c r="H53" s="25">
+        <v>38</v>
+      </c>
       <c r="I53" s="16">
         <f>(D53*3600)/G53</f>
         <v>0</v>
       </c>
       <c r="J53" s="16">
         <f>I53-H53</f>
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="K53" s="69" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="27"/>
+      <c r="L53" s="27">
+        <v>0</v>
+      </c>
       <c r="M53" s="53" t="e">
         <f>(N53/D53)*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N53" s="62"/>
-      <c r="O53" s="28"/>
+      <c r="N53" s="62">
+        <v>0</v>
+      </c>
+      <c r="O53" s="28">
+        <v>0</v>
+      </c>
       <c r="P53" s="53" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q53" s="48"/>
+      <c r="Q53" s="48">
+        <v>0</v>
+      </c>
       <c r="R53" s="50">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-4.0628333333333329</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9876,16 +9940,16 @@
       </c>
       <c r="E54" s="59">
         <f>SUM(E51:E53)</f>
-        <v>0</v>
+        <v>19.886499999999998</v>
       </c>
       <c r="F54" s="59">
         <f>SUM(F51:F53)</f>
-        <v>0</v>
+        <v>-19.886499999999998</v>
       </c>
       <c r="G54" s="31"/>
       <c r="H54" s="30">
         <f>SUM(H51:H53)</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I54" s="32">
         <f>SUM(I51:I53)</f>
@@ -9893,7 +9957,7 @@
       </c>
       <c r="J54" s="32">
         <f>SUM(J51:J53)</f>
-        <v>0</v>
+        <v>-186</v>
       </c>
       <c r="K54" s="33" t="e">
         <f>AVERAGE(K51:K53)</f>
@@ -9922,7 +9986,7 @@
       </c>
       <c r="R54" s="56">
         <f>SUM(R51:R53)</f>
-        <v>0</v>
+        <v>-19.886499999999998</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/workingTable/shifts_table.xlsx
+++ b/workingTable/shifts_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\workingTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C77F6DCA-AF21-4603-8AE1-F2244BA18EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8592D244-544C-438E-8CFA-3BA566250476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17268" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="33">
   <si>
     <t>MARTINREA HFS</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>ELCV</t>
+  </si>
+  <si>
+    <t>CD4RR</t>
   </si>
 </sst>
 </file>
@@ -1053,43 +1056,22 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,22 +1119,43 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1489,92 +1492,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1633,13 +1636,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -1659,11 +1662,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -1681,11 +1684,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -1703,11 +1706,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -1758,7 +1761,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -1821,11 +1824,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -1848,11 +1851,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -1873,11 +1876,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -1898,11 +1901,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -1953,7 +1956,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2007,11 +2010,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -2034,11 +2037,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -2059,11 +2062,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -2084,11 +2087,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -2139,7 +2142,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2193,11 +2196,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -2236,11 +2239,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -2279,11 +2282,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -2322,11 +2325,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -2439,13 +2442,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -2488,11 +2491,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -2533,11 +2536,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -2578,11 +2581,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -2639,7 +2642,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="12">B25</f>
         <v>Shift</v>
@@ -2702,11 +2705,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -2745,11 +2748,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -2788,11 +2791,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -2831,11 +2834,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -2892,7 +2895,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -2946,11 +2949,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -2989,11 +2992,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -3032,11 +3035,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -3075,11 +3078,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -3136,7 +3139,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3190,11 +3193,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -3233,11 +3236,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -3276,11 +3279,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -3319,11 +3322,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -3436,13 +3439,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -3485,11 +3488,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -3530,11 +3533,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -3575,11 +3578,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -3636,7 +3639,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="30">B45</f>
         <v>Shift</v>
@@ -3698,11 +3701,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -3745,11 +3748,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -3790,11 +3793,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -3835,11 +3838,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -3896,7 +3899,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -3950,11 +3953,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -3993,11 +3996,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -4036,11 +4039,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -4079,11 +4082,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -4140,7 +4143,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -4194,11 +4197,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -4237,11 +4240,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -4280,11 +4283,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -4323,11 +4326,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -4385,16 +4388,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -4405,16 +4408,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4427,8 +4430,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4450,92 +4453,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4594,13 +4597,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -4620,11 +4623,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -4642,11 +4645,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58">
         <v>12</v>
       </c>
@@ -4678,11 +4681,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>12</v>
@@ -4733,7 +4736,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -4796,11 +4799,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -4820,11 +4823,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -4842,11 +4845,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -4864,11 +4867,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -4919,7 +4922,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4973,11 +4976,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -4997,11 +5000,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58">
         <v>7.5</v>
       </c>
@@ -5021,11 +5024,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58">
         <v>7.5</v>
       </c>
@@ -5045,11 +5048,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>15</v>
@@ -5100,7 +5103,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -5154,11 +5157,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -5197,11 +5200,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -5240,11 +5243,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -5283,11 +5286,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -5400,13 +5403,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -5449,11 +5452,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58">
         <v>7.5</v>
       </c>
@@ -5508,11 +5511,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58">
         <v>7.5</v>
       </c>
@@ -5567,11 +5570,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>15</v>
@@ -5628,7 +5631,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -5691,11 +5694,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -5734,11 +5737,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -5777,11 +5780,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -5820,11 +5823,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -5881,7 +5884,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -5935,11 +5938,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -5978,11 +5981,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -6021,11 +6024,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -6064,11 +6067,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -6125,7 +6128,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -6179,11 +6182,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -6222,11 +6225,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -6265,11 +6268,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -6308,11 +6311,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -6425,13 +6428,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -6474,11 +6477,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58">
         <v>7.5</v>
       </c>
@@ -6533,11 +6536,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58">
         <v>0</v>
       </c>
@@ -6592,11 +6595,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>7.5</v>
@@ -6653,7 +6656,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -6715,11 +6718,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -6762,11 +6765,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58">
         <v>0</v>
       </c>
@@ -6821,11 +6824,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58">
         <v>0</v>
       </c>
@@ -6880,11 +6883,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -6941,7 +6944,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -6995,26 +6998,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -7038,26 +7045,28 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -7081,26 +7090,28 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -7124,11 +7135,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -7146,13 +7157,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -7185,7 +7196,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -7239,11 +7250,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -7282,11 +7293,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -7325,11 +7336,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -7368,11 +7379,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -7430,16 +7441,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -7450,16 +7461,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7472,8 +7483,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7495,92 +7506,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -7639,13 +7650,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -7665,11 +7676,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58">
         <v>12</v>
       </c>
@@ -7701,11 +7712,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58">
         <v>6.0441144407457772</v>
       </c>
@@ -7725,11 +7736,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>18.044114440745776</v>
@@ -7780,7 +7791,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -7843,11 +7854,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -7867,11 +7878,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -7889,11 +7900,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58">
         <v>0</v>
       </c>
@@ -7913,11 +7924,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -7968,7 +7979,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -8022,11 +8033,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58">
@@ -8048,11 +8059,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -8070,11 +8081,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58">
         <v>7.5</v>
       </c>
@@ -8094,11 +8105,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>13.621165750953885</v>
@@ -8149,7 +8160,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8203,11 +8214,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -8246,11 +8257,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -8289,11 +8300,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -8332,11 +8343,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8449,13 +8460,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58">
@@ -8512,11 +8523,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58">
         <v>7.5</v>
       </c>
@@ -8571,11 +8582,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58">
         <v>7.5</v>
       </c>
@@ -8630,11 +8641,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>22.5</v>
@@ -8691,7 +8702,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -8754,11 +8765,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -8797,11 +8808,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -8840,11 +8851,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -8883,11 +8894,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -8944,7 +8955,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -8998,11 +9009,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -9041,11 +9052,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -9084,11 +9095,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -9127,11 +9138,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -9188,7 +9199,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -9242,11 +9253,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -9285,11 +9296,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -9328,11 +9339,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -9371,11 +9382,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -9488,13 +9499,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -9537,11 +9548,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -9582,11 +9593,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -9627,11 +9638,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -9688,7 +9699,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -9750,11 +9761,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58">
@@ -9811,11 +9822,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58">
         <v>0</v>
       </c>
@@ -9870,11 +9881,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58">
         <v>0</v>
       </c>
@@ -9929,11 +9940,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -9990,7 +10001,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -10044,26 +10055,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -10086,27 +10101,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -10129,27 +10146,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -10172,12 +10191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -10195,13 +10214,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -10234,7 +10253,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -10288,11 +10307,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -10331,11 +10350,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -10374,11 +10393,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -10417,11 +10436,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -10479,16 +10498,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -10499,16 +10518,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10522,7 +10541,7 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10547,126 +10566,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="85"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -10725,13 +10744,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -10751,11 +10770,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -10773,11 +10792,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -10795,11 +10814,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -10850,7 +10869,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -10913,11 +10932,11 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -10937,11 +10956,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -10959,11 +10978,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -10981,11 +11000,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -11036,7 +11055,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -11090,11 +11109,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -11114,11 +11133,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -11136,11 +11155,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -11158,11 +11177,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -11213,7 +11232,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11267,11 +11286,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -11310,11 +11329,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -11353,11 +11372,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -11396,11 +11415,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -11513,13 +11532,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -11562,11 +11581,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -11607,11 +11626,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -11652,11 +11671,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -11713,7 +11732,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -11776,11 +11795,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -11819,11 +11838,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -11862,11 +11881,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -11905,11 +11924,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -11966,7 +11985,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -12020,11 +12039,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -12063,11 +12082,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -12106,11 +12125,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -12149,11 +12168,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -12210,7 +12229,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -12264,11 +12283,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -12307,11 +12326,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -12350,11 +12369,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -12393,11 +12412,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -12510,13 +12529,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -12559,11 +12578,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -12604,11 +12623,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -12649,11 +12668,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -12710,7 +12729,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -12772,11 +12791,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -12819,11 +12838,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -12864,11 +12883,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -12909,11 +12928,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -12970,7 +12989,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -13024,26 +13043,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -13066,27 +13089,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -13109,27 +13134,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -13152,12 +13179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -13175,13 +13202,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -13214,7 +13241,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -13268,11 +13295,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -13311,11 +13338,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -13354,11 +13381,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -13397,11 +13424,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -13459,21 +13486,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R1:AH2"/>
@@ -13490,6 +13502,21 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13502,8 +13529,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13525,92 +13552,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -13669,13 +13696,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -13695,11 +13722,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -13717,11 +13744,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -13739,11 +13766,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -13794,7 +13821,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -13857,11 +13884,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -13881,11 +13908,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -13903,11 +13930,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -13925,11 +13952,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -13980,7 +14007,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -14034,11 +14061,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -14058,11 +14085,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -14080,11 +14107,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -14102,11 +14129,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -14157,7 +14184,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -14211,11 +14238,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -14254,11 +14281,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -14297,11 +14324,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -14340,11 +14367,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -14457,13 +14484,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -14506,11 +14533,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -14551,11 +14578,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -14596,11 +14623,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -14657,7 +14684,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -14720,11 +14747,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -14763,11 +14790,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -14806,11 +14833,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -14849,11 +14876,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -14910,7 +14937,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -14964,11 +14991,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -15007,11 +15034,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -15050,11 +15077,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -15093,11 +15120,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -15154,7 +15181,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -15208,11 +15235,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -15251,11 +15278,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -15294,11 +15321,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -15337,11 +15364,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -15454,13 +15481,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -15503,11 +15530,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -15548,11 +15575,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -15593,11 +15620,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -15654,7 +15681,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -15716,11 +15743,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -15763,11 +15790,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -15808,11 +15835,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -15853,11 +15880,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -15914,7 +15941,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -15968,26 +15995,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -16010,27 +16041,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -16053,27 +16086,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -16096,12 +16131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -16119,13 +16154,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -16158,7 +16193,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -16212,11 +16247,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -16255,11 +16290,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -16298,11 +16333,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -16341,11 +16376,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -16403,24 +16438,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -16433,6 +16450,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16445,8 +16480,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D56" sqref="D55:D56"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16468,92 +16503,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -16612,13 +16647,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -16638,11 +16673,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -16660,11 +16695,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -16682,11 +16717,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -16737,7 +16772,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -16800,11 +16835,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -16824,11 +16859,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -16846,11 +16881,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -16868,11 +16903,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -16923,7 +16958,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -16977,11 +17012,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -17001,11 +17036,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -17023,11 +17058,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -17045,11 +17080,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -17100,7 +17135,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -17154,11 +17189,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -17197,11 +17232,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -17240,11 +17275,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -17283,11 +17318,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -17400,13 +17435,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -17449,11 +17484,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -17494,11 +17529,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -17539,11 +17574,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -17600,7 +17635,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -17663,11 +17698,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -17706,11 +17741,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -17749,11 +17784,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -17792,11 +17827,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -17853,7 +17888,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -17907,11 +17942,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -17950,11 +17985,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -17993,11 +18028,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -18036,11 +18071,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -18097,7 +18132,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -18151,11 +18186,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -18194,11 +18229,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -18237,11 +18272,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -18280,11 +18315,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -18397,13 +18432,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -18446,11 +18481,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -18491,11 +18526,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -18536,11 +18571,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -18597,7 +18632,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -18659,11 +18694,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -18706,11 +18741,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -18751,11 +18786,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -18796,11 +18831,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -18857,7 +18892,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -18911,26 +18946,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -18953,27 +18992,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -18996,27 +19037,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -19039,12 +19082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -19062,13 +19105,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -19101,7 +19144,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -19155,11 +19198,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -19198,11 +19241,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -19241,11 +19284,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -19284,11 +19327,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -19346,24 +19389,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -19376,6 +19401,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19385,99 +19428,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C4095-B736-4F0D-A83E-FB76969E7CED}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -19536,13 +19579,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -19562,11 +19605,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -19584,11 +19627,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -19606,11 +19649,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -19661,7 +19704,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -19724,11 +19767,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -19748,11 +19791,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -19770,11 +19813,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -19792,11 +19835,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -19847,7 +19890,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -19901,11 +19944,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -19925,11 +19968,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -19947,11 +19990,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -19969,11 +20012,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -20024,7 +20067,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -20078,11 +20121,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -20121,11 +20164,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -20164,11 +20207,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -20207,11 +20250,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -20324,13 +20367,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -20373,11 +20416,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -20418,11 +20461,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -20463,11 +20506,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -20524,7 +20567,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -20587,11 +20630,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -20630,11 +20673,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -20673,11 +20716,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -20716,11 +20759,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -20777,7 +20820,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -20831,11 +20874,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -20874,11 +20917,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -20917,11 +20960,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -20960,11 +21003,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -21021,7 +21064,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -21075,11 +21118,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -21118,11 +21161,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -21161,11 +21204,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -21204,11 +21247,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -21321,13 +21364,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -21370,11 +21413,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -21415,11 +21458,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -21460,11 +21503,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -21521,7 +21564,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -21583,11 +21626,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -21630,11 +21673,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -21675,11 +21718,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -21720,11 +21763,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -21781,7 +21824,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -21835,26 +21878,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -21877,27 +21924,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -21920,27 +21969,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -21963,12 +22014,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -21986,13 +22037,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -22025,7 +22076,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -22079,11 +22130,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -22122,11 +22173,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -22165,11 +22216,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -22208,11 +22259,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -22270,20 +22321,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -22300,6 +22337,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22309,99 +22360,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A183CAA-4958-4441-AB23-468713AB7CE4}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -22460,13 +22511,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -22486,11 +22537,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -22508,11 +22559,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -22530,11 +22581,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -22585,7 +22636,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -22648,11 +22699,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -22672,11 +22723,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -22694,11 +22745,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -22716,11 +22767,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -22771,7 +22822,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -22825,11 +22876,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -22849,11 +22900,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -22871,11 +22922,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -22893,11 +22944,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -22948,7 +22999,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -23002,11 +23053,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -23045,11 +23096,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -23088,11 +23139,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -23131,11 +23182,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -23248,13 +23299,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -23297,11 +23348,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -23342,11 +23393,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -23387,11 +23438,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -23448,7 +23499,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -23511,11 +23562,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -23554,11 +23605,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -23597,11 +23648,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -23640,11 +23691,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -23701,7 +23752,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -23755,11 +23806,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -23798,11 +23849,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -23841,11 +23892,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -23884,11 +23935,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -23945,7 +23996,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -23999,11 +24050,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -24042,11 +24093,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -24085,11 +24136,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -24128,11 +24179,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -24245,13 +24296,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -24294,11 +24345,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -24339,11 +24390,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -24384,11 +24435,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -24445,7 +24496,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -24507,11 +24558,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -24554,11 +24605,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -24599,11 +24650,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -24644,11 +24695,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -24705,7 +24756,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -24759,26 +24810,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -24801,27 +24856,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -24844,27 +24901,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -24887,12 +24946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -24910,13 +24969,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -24949,7 +25008,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -25003,11 +25062,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -25046,11 +25105,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -25089,11 +25148,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -25132,11 +25191,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -25194,20 +25253,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -25224,6 +25269,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
